--- a/docs/TA.Final.TCDOC.MaximCherviakov.xlsx
+++ b/docs/TA.Final.TCDOC.MaximCherviakov.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Practices\TA.FinalPractice.MaximCherviakov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Practices\TA.FinalPractice.MaximCherviakov\ta.sm21.maximcherviakov\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8EE51B-1ED3-41AC-993B-EC5578F77688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9572F1-72F6-4705-9B8D-D64536667F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="247">
   <si>
     <t>TC_ID</t>
   </si>
@@ -520,19 +520,387 @@
     <t>User13</t>
   </si>
   <si>
-    <t>Username - "TestUser11"; Password - "MyPassword11+"; Confirm password - same with Password.</t>
+    <t>Username - "TestUser11"; Password - "Password11+"; Confirm password - same with Password.</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Checking if inventory button clickable</t>
+  </si>
+  <si>
+    <t>TC_12.1</t>
+  </si>
+  <si>
+    <t>Click on the button "Inventory"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisite.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Authorize in the link "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://inventory.edu-netcracker.com/login.jsp" with User13 info</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click on the button "Inventory"</t>
+  </si>
+  <si>
+    <t>User on the "Inventory" page</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prerequisite.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Authorize in the link "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://inventory.edu-netcracker.com/login.jsp" with User13 info and click on the button "Inventory"</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_13.1</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "Country" type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating an object of the "Country" type</t>
+  </si>
+  <si>
+    <t>1. Click on the button "Create coutry"</t>
+  </si>
+  <si>
+    <t>2. Fill "Name" textbox with test data Country1 info</t>
+  </si>
+  <si>
+    <t>3. Pick test data Country1 info from "Continent" dropdown</t>
+  </si>
+  <si>
+    <t>4. Fill "Language" textbox with data Country1 info</t>
+  </si>
+  <si>
+    <t>5. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "City" type</t>
+  </si>
+  <si>
+    <t>Creating an object of the "City" type</t>
+  </si>
+  <si>
+    <t>2. Click on the button "Create city"</t>
+  </si>
+  <si>
+    <t>3. Fill "Name" textbox with test data City1 info</t>
+  </si>
+  <si>
+    <t>4. Fill "Population" textbox with test data City1 info</t>
+  </si>
+  <si>
+    <t>5. Pick test data City1 info from "Is a regional center?" dropdown</t>
+  </si>
+  <si>
+    <t>6. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>TC_14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on created, on 13.1 test case, "Country" type object </t>
+  </si>
+  <si>
+    <t>Country1</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>Name - "TestCountry"; Continent - "North America";  Language - "English"</t>
+  </si>
+  <si>
+    <t>Name - "TestCity"; Population - "1000000"; Is a regional center? - "Yes"</t>
+  </si>
+  <si>
+    <t>City2</t>
+  </si>
+  <si>
+    <t>Name - "TestCityFail"; Population - "0"; Is a regional center? - "Yes"</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "City" type with incorrect data</t>
+  </si>
+  <si>
+    <t>TC_15.1</t>
+  </si>
+  <si>
+    <t>Creating an object of the "City" type with 0 population</t>
+  </si>
+  <si>
+    <t>3. Fill "Name" textbox with test data City2 info</t>
+  </si>
+  <si>
+    <t>4. Fill "Population" textbox with test data City2 info</t>
+  </si>
+  <si>
+    <t>5. Pick test data City2 info from "Is a regional center?" dropdown</t>
+  </si>
+  <si>
+    <t>Message "The population should be more than 0"</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "Building" type</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Building" type</t>
+  </si>
+  <si>
+    <t>TC_16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click on created, on 15.1 test case, "City" type object </t>
+  </si>
+  <si>
+    <t>3. Click on the button "Create building"</t>
+  </si>
+  <si>
+    <t>4. Fill "Name" textbox with test data Building1 info</t>
+  </si>
+  <si>
+    <t>5. Fill "Street Name" textbox with test data Building1 info</t>
+  </si>
+  <si>
+    <t>6. Fill "Number" textbox with test data Building1 info</t>
+  </si>
+  <si>
+    <t>7. Fill "Square" textbox with test data Building1 info</t>
+  </si>
+  <si>
+    <t>8. Pick test data Building1 info from "Is connected?" dropdown</t>
+  </si>
+  <si>
+    <t>9. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>Building1</t>
+  </si>
+  <si>
+    <t>Name - "TesBuilding"; Street Name - "TestStreet"; Number - "1"; Square - "10000"; Is connected? - "Lit"</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_17.1</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "Building" type with incorrect data</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Building" type with 0 square</t>
+  </si>
+  <si>
+    <t>Message "'Square' parameter should be more than 0."</t>
+  </si>
+  <si>
+    <t>4. Fill "Name" textbox with test data Building2 info</t>
+  </si>
+  <si>
+    <t>5. Fill "Street Name" textbox with test data Building2 info</t>
+  </si>
+  <si>
+    <t>6. Fill "Number" textbox with test data Building2 info</t>
+  </si>
+  <si>
+    <t>7. Fill "Square" textbox with test data Building2 info</t>
+  </si>
+  <si>
+    <t>Building2</t>
+  </si>
+  <si>
+    <t>Name - "TesBuildingFail"; Street Name - "TestStreetFail"; Number - "1"; Square - "0"; Is connected? - "Lit"</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_18.1</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "Floor" type</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Floor" type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click on created, on 14.1 test case, "City" type object </t>
+  </si>
+  <si>
+    <t>Floor with Floor1 data was created</t>
+  </si>
+  <si>
+    <t>Sity with City1 data was created</t>
+  </si>
+  <si>
+    <t>Building with Building1 data was created</t>
+  </si>
+  <si>
+    <t>Country with Country1 data was created</t>
+  </si>
+  <si>
+    <t>Floor1</t>
+  </si>
+  <si>
+    <t>Number - "1"; Square - "800"</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_19.1</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Floor" type with 0 square</t>
+  </si>
+  <si>
+    <t>Checking creating an object of the "Floor" type with incorrect data</t>
+  </si>
+  <si>
+    <t>Message "Square should be more than 0."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Click on created, on 16.1 test case, "Building" type object </t>
+  </si>
+  <si>
+    <t>4. Click on the button "Create floor"</t>
+  </si>
+  <si>
+    <t>5. Fill "Number" textbox with test data Floor1 info</t>
+  </si>
+  <si>
+    <t>6. Fill "Square" textbox with test data Floor1 info</t>
+  </si>
+  <si>
+    <t>7. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>5. Fill "Number" textbox with test data Floor2 info</t>
+  </si>
+  <si>
+    <t>6. Fill "Square" textbox with test data Floor2 info</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_20.1</t>
+  </si>
+  <si>
+    <t>Checking creating existing object of the "Floor" type</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Floor" type, which already exist</t>
+  </si>
+  <si>
+    <t>Message "Floor with such Name/Number already exists."</t>
+  </si>
+  <si>
+    <t>Floor2</t>
+  </si>
+  <si>
+    <t>Number - "2"; Square - "0"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,7 +956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -648,26 +1016,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -679,44 +1084,86 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -724,32 +1171,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1487,7 @@
     <col min="2" max="2" width="40.88671875" customWidth="1"/>
     <col min="3" max="3" width="74.109375" customWidth="1"/>
     <col min="4" max="4" width="49.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="105.6640625" customWidth="1"/>
   </cols>
@@ -1063,27 +1508,27 @@
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="H2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="H3" s="9">
         <v>1</v>
       </c>
@@ -1092,1060 +1537,1831 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="29"/>
+      <c r="H7" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="29"/>
       <c r="H8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="29"/>
       <c r="H9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="29"/>
       <c r="H10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="29"/>
       <c r="H11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="H12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="H13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="29" t="s">
         <v>121</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="29"/>
       <c r="H15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="29"/>
       <c r="H16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="29"/>
       <c r="H17" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="29"/>
       <c r="H18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="29" t="s">
         <v>128</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="29"/>
       <c r="H20" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="29"/>
+      <c r="H21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="29"/>
+      <c r="H22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="29"/>
+      <c r="H23" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="29"/>
+      <c r="H24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="29" t="s">
         <v>33</v>
       </c>
+      <c r="H25" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="29"/>
+      <c r="H26" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="29"/>
+      <c r="H27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="29" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="23"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="23"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="23"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="23"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="23"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="23"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="23"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="23"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="23"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="23"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="23"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="17"/>
+      <c r="D77" s="29"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="17"/>
+      <c r="D79" s="29"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="17"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="17"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="17"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="29" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="17"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="29"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="17"/>
+      <c r="D84" s="29"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="17"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="17"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="17"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="17"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="17"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="17"/>
+      <c r="D87" s="29"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="17"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="17"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="17"/>
+      <c r="D93" s="29"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="17"/>
+      <c r="D94" s="29"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="17"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="17"/>
+      <c r="D96" s="29"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="17"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="17"/>
+      <c r="D97" s="29"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="17"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="17"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="17"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="17"/>
+      <c r="D99" s="29"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="17"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="17"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="26"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D104" s="23"/>
+      <c r="D104" s="18"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="23"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
+      <c r="A106" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="17"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="29"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="29"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="17"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="29"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="17"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" s="29"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D123" s="29"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="17"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="29"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="17"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D128" s="29"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="17"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="29"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="17"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="29"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="17"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="29"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="21"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="17"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" s="29"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="17"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="29"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="17"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" s="29"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="17"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="29"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="17"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" s="29"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="17"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" s="29"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="17"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="29"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="17"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="29"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="20"/>
+      <c r="D143" s="21"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="7"/>
+      <c r="B144" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="17"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D146" s="29"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="17"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D147" s="29"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="17"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" s="29"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="17"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="17"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D150" s="29"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="17"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" s="29"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="17"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" s="29"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="17"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="29"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" s="20"/>
+      <c r="D154" s="21"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="7"/>
+      <c r="B155" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156" s="46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="50"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D157" s="47"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="50"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D158" s="47"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="50"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="47"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="50"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D160" s="47"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="50"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D161" s="47"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="51"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D162" s="48"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163" s="20"/>
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="7"/>
+      <c r="B164" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C165" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="50"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="47"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="50"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" s="47"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="50"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D168" s="47"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="50"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D169" s="47"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="50"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D170" s="47"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="51"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D171" s="48"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="20"/>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="7"/>
+      <c r="B173" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B174" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="50"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D175" s="47"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="50"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D176" s="47"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="50"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D177" s="47"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="50"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D178" s="47"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="50"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D179" s="47"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="51"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D180" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="129">
+    <mergeCell ref="A174:A180"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="D174:D180"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A165:A171"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="D165:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="D156:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="B145:B153"/>
+    <mergeCell ref="D145:D153"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="D134:D142"/>
+    <mergeCell ref="B134:B142"/>
+    <mergeCell ref="A134:A142"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="B102:D102"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="D103:D105"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="I15:K15"/>
@@ -2161,16 +3377,6 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
     <mergeCell ref="D82:D87"/>
     <mergeCell ref="A71:A75"/>
     <mergeCell ref="B71:B75"/>
@@ -2220,8 +3426,17 @@
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="D4:D11"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="D111:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:B115"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/TA.Final.TCDOC.MaximCherviakov.xlsx
+++ b/docs/TA.Final.TCDOC.MaximCherviakov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Practices\TA.FinalPractice.MaximCherviakov\ta.sm21.maximcherviakov\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9572F1-72F6-4705-9B8D-D64536667F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC9AE8-4BBA-4CB0-9F06-7538FF76584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="276">
   <si>
     <t>TC_ID</t>
   </si>
@@ -874,17 +874,112 @@
   <si>
     <t>Number - "2"; Square - "0"</t>
   </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Checking creating object of the "Pos Terminal" type</t>
+  </si>
+  <si>
+    <t>TC_21.1</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Pos Terminal" type</t>
+  </si>
+  <si>
+    <t>4. Click on the button "Post Terminal (s)"</t>
+  </si>
+  <si>
+    <t>5. Click on the button "Create Post Terminal"</t>
+  </si>
+  <si>
+    <t>6. Fill "Name" textbox with test data PosTerminal1 info</t>
+  </si>
+  <si>
+    <t>7. Fill "Width" textbox with test data PosTerminal1 info</t>
+  </si>
+  <si>
+    <t>8. Fill "Length" textbox with test data PosTerminal1 info</t>
+  </si>
+  <si>
+    <t>9. Fill "Height" textbox with test data PosTerminal1 info</t>
+  </si>
+  <si>
+    <t>10. Pick test data PosTerminal1 info from "Physical status" dropdown</t>
+  </si>
+  <si>
+    <t>11. Fill "Located in" textbox with test data PosTerminal1 info</t>
+  </si>
+  <si>
+    <t>12. Click on the "Save" button</t>
+  </si>
+  <si>
+    <t>Pos Terminal with PosTerminal1 data was created</t>
+  </si>
+  <si>
+    <t>PosTerminal1</t>
+  </si>
+  <si>
+    <t>Name - "TestPosTerminal"; Width - "100"; Length - "100"; Height - "100"; Physical Status - "Planned"; Located in - "Building: TestBuilding"</t>
+  </si>
+  <si>
+    <t>PosTerminal2</t>
+  </si>
+  <si>
+    <t>Name - "TestPosTerminalFail"; Width - "0"; Length - "0"; Height - "0"; Physical Status - "Planned"; Located in - "Building: TestBuilding"</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_22.1</t>
+  </si>
+  <si>
+    <t>Checking creating object of the "Pos Terminal" type with incorrect data</t>
+  </si>
+  <si>
+    <t>Creating an object of the "Pos Terminal" type with 0 widht, length and height</t>
+  </si>
+  <si>
+    <t>6. Fill "Name" textbox with test data PosTerminal2 info</t>
+  </si>
+  <si>
+    <t>7. Fill "Width" textbox with test data PosTerminal2 info</t>
+  </si>
+  <si>
+    <t>8. Fill "Length" textbox with test data PosTerminal2 info</t>
+  </si>
+  <si>
+    <t>9. Fill "Height" textbox with test data PosTerminal2 info</t>
+  </si>
+  <si>
+    <t>10. Pick test data PosTerminal2 info from "Physical status" dropdown</t>
+  </si>
+  <si>
+    <t>11. Fill "Located in" textbox with test data PosTerminal2 info</t>
+  </si>
+  <si>
+    <t>Messages: "POS Terminal's width should be more than 0.", "POS Terminal's length should be more than 0.", "POS Terminal's height should be more than 0."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,20 +1154,20 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1084,117 +1179,117 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197:D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1582,7 @@
     <col min="2" max="2" width="40.88671875" customWidth="1"/>
     <col min="3" max="3" width="74.109375" customWidth="1"/>
     <col min="4" max="4" width="49.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="105.6640625" customWidth="1"/>
   </cols>
@@ -1508,27 +1603,27 @@
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="H2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="H3" s="9">
         <v>1</v>
       </c>
@@ -1537,1119 +1632,1135 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="H7" s="37" t="s">
+      <c r="D7" s="33"/>
+      <c r="H7" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="33"/>
       <c r="H8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="33"/>
       <c r="H9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
       <c r="H10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="33"/>
       <c r="H11" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
       <c r="H12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="H13" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="33" t="s">
         <v>121</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="33"/>
       <c r="H15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="33"/>
       <c r="H16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="33"/>
       <c r="H17" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="33"/>
       <c r="H18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="33" t="s">
         <v>128</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="33"/>
       <c r="H20" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="33"/>
       <c r="H21" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="33"/>
       <c r="H22" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="33"/>
       <c r="H23" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="33"/>
       <c r="H24" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="33" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="33" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="33"/>
       <c r="H26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="33"/>
       <c r="H27" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="H28" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="H29" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="33"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="34" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="18"/>
+      <c r="D60" s="34"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="18"/>
+      <c r="D61" s="34"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="18"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="18"/>
+      <c r="D72" s="34"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="29"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="18"/>
+      <c r="D73" s="34"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="29"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="18"/>
+      <c r="D74" s="34"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="18"/>
+      <c r="D75" s="34"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="29"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="29"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="29"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="29"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="29"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="29"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="29"/>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="33" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="29"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="29"/>
+      <c r="D84" s="33"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="29"/>
+      <c r="D85" s="33"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="29"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="29"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="29"/>
+      <c r="D91" s="33"/>
     </row>
     <row r="92" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="29"/>
+      <c r="D92" s="33"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D93" s="29"/>
+      <c r="D93" s="33"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="29"/>
+      <c r="D94" s="33"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="29"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="29"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="33"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="29"/>
+      <c r="D100" s="33"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="29"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="42"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="34" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D104" s="18"/>
+      <c r="D104" s="34"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="34"/>
       <c r="C105" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="18"/>
+      <c r="D105" s="34"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="21"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="29"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
@@ -2669,643 +2780,1000 @@
       <c r="A109" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="21"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="34" t="s">
         <v>162</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="34" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="34"/>
       <c r="C112" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="18"/>
+      <c r="D112" s="34"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D113" s="18"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D114" s="18"/>
+      <c r="D114" s="34"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D115" s="18"/>
+      <c r="D115" s="34"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C118" s="45" t="s">
+      <c r="C118" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="45" t="s">
+      <c r="A119" s="32"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="29"/>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="45" t="s">
+      <c r="A120" s="32"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D120" s="29"/>
+      <c r="D120" s="33"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="45" t="s">
+      <c r="A121" s="32"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="33"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="45" t="s">
+      <c r="A122" s="32"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D122" s="29"/>
+      <c r="D122" s="33"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="45" t="s">
+      <c r="A123" s="32"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D123" s="29"/>
+      <c r="D123" s="33"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="29"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="45" t="s">
+      <c r="C126" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="33" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="45" t="s">
+      <c r="A127" s="32"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D127" s="29"/>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="45" t="s">
+      <c r="A128" s="32"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D128" s="29"/>
+      <c r="D128" s="33"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="45" t="s">
+      <c r="A129" s="32"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D129" s="29"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="45" t="s">
+      <c r="A130" s="32"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="29"/>
+      <c r="D130" s="33"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="45" t="s">
+      <c r="A131" s="32"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D131" s="29"/>
+      <c r="D131" s="33"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="21"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="29"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C134" s="45" t="s">
+      <c r="C134" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="33" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="45" t="s">
+      <c r="A135" s="32"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D135" s="29"/>
+      <c r="D135" s="33"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="45" t="s">
+      <c r="A136" s="32"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D136" s="29"/>
+      <c r="D136" s="33"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="45" t="s">
+      <c r="A137" s="32"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D137" s="29"/>
+      <c r="D137" s="33"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="45" t="s">
+      <c r="A138" s="32"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D138" s="29"/>
+      <c r="D138" s="33"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="45" t="s">
+      <c r="A139" s="32"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D139" s="29"/>
+      <c r="D139" s="33"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="45" t="s">
+      <c r="A140" s="32"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D140" s="29"/>
+      <c r="D140" s="33"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="45" t="s">
+      <c r="A141" s="32"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="33"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="45" t="s">
+      <c r="A142" s="32"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D142" s="29"/>
+      <c r="D142" s="33"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="29"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="45" t="s">
+      <c r="C145" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D145" s="29" t="s">
+      <c r="D145" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="45" t="s">
+      <c r="A146" s="32"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D146" s="29"/>
+      <c r="D146" s="33"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="17"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="45" t="s">
+      <c r="A147" s="32"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D147" s="29"/>
+      <c r="D147" s="33"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="45" t="s">
+      <c r="A148" s="32"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D148" s="29"/>
+      <c r="D148" s="33"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="17"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="45" t="s">
+      <c r="A149" s="32"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D149" s="29"/>
+      <c r="D149" s="33"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="17"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="45" t="s">
+      <c r="A150" s="32"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D150" s="29"/>
+      <c r="D150" s="33"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="17"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="45" t="s">
+      <c r="A151" s="32"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D151" s="29"/>
+      <c r="D151" s="33"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="17"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="45" t="s">
+      <c r="A152" s="32"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D152" s="29"/>
+      <c r="D152" s="33"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="17"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="45" t="s">
+      <c r="A153" s="32"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D153" s="29"/>
+      <c r="D153" s="33"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="21"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="29"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="44" t="s">
+      <c r="B155" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B156" s="46" t="s">
+      <c r="B156" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C156" s="45" t="s">
+      <c r="C156" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D156" s="46" t="s">
+      <c r="D156" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="50"/>
-      <c r="B157" s="47"/>
-      <c r="C157" s="45" t="s">
+      <c r="A157" s="19"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D157" s="47"/>
+      <c r="D157" s="22"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="50"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="45" t="s">
+      <c r="A158" s="19"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D158" s="47"/>
+      <c r="D158" s="22"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="50"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="45" t="s">
+      <c r="A159" s="19"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D159" s="47"/>
+      <c r="D159" s="22"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="50"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="45" t="s">
+      <c r="A160" s="19"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D160" s="47"/>
+      <c r="D160" s="22"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="50"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="45" t="s">
+      <c r="A161" s="19"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D161" s="47"/>
+      <c r="D161" s="22"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="51"/>
-      <c r="B162" s="48"/>
-      <c r="C162" s="45" t="s">
+      <c r="A162" s="20"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D162" s="48"/>
+      <c r="D162" s="23"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="21"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="49" t="s">
+      <c r="A165" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C165" s="45" t="s">
+      <c r="C165" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D165" s="46" t="s">
+      <c r="D165" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="50"/>
-      <c r="B166" s="47"/>
-      <c r="C166" s="45" t="s">
+      <c r="A166" s="19"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D166" s="47"/>
+      <c r="D166" s="22"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="50"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="45" t="s">
+      <c r="A167" s="19"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D167" s="47"/>
+      <c r="D167" s="22"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="50"/>
-      <c r="B168" s="47"/>
-      <c r="C168" s="45" t="s">
+      <c r="A168" s="19"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D168" s="47"/>
+      <c r="D168" s="22"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="50"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="45" t="s">
+      <c r="A169" s="19"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D169" s="47"/>
+      <c r="D169" s="22"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="50"/>
-      <c r="B170" s="47"/>
-      <c r="C170" s="45" t="s">
+      <c r="A170" s="19"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D170" s="47"/>
+      <c r="D170" s="22"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="51"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="45" t="s">
+      <c r="A171" s="20"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D171" s="48"/>
+      <c r="D171" s="23"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C172" s="20"/>
-      <c r="D172" s="21"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="29"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="44" t="s">
+      <c r="B173" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="49" t="s">
+      <c r="A174" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C174" s="45" t="s">
+      <c r="C174" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D174" s="46" t="s">
+      <c r="D174" s="21" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="50"/>
-      <c r="B175" s="47"/>
-      <c r="C175" s="45" t="s">
+      <c r="A175" s="19"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D175" s="47"/>
+      <c r="D175" s="22"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="50"/>
-      <c r="B176" s="47"/>
-      <c r="C176" s="45" t="s">
+      <c r="A176" s="19"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D176" s="47"/>
+      <c r="D176" s="22"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="50"/>
-      <c r="B177" s="47"/>
-      <c r="C177" s="45" t="s">
+      <c r="A177" s="19"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D177" s="47"/>
+      <c r="D177" s="22"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="50"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="45" t="s">
+      <c r="A178" s="19"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D178" s="47"/>
+      <c r="D178" s="22"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="50"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="45" t="s">
+      <c r="A179" s="19"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D179" s="47"/>
+      <c r="D179" s="22"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="51"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="45" t="s">
+      <c r="A180" s="20"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D180" s="48"/>
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C181" s="28"/>
+      <c r="D181" s="29"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="7"/>
+      <c r="B182" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+    </row>
+    <row r="183" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="32"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D184" s="33"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="32"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D185" s="33"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="32"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D186" s="33"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="32"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D187" s="33"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="32"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D188" s="33"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="32"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D189" s="33"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="32"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D190" s="33"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="32"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D191" s="33"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="32"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D192" s="33"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="32"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D193" s="33"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="32"/>
+      <c r="B194" s="33"/>
+      <c r="C194" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D194" s="33"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" s="28"/>
+      <c r="D195" s="29"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="7"/>
+      <c r="B196" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B197" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="32"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="33"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="32"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D199" s="33"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="32"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D200" s="33"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="32"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D201" s="33"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="32"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D202" s="33"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="32"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D203" s="33"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="32"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D204" s="33"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="32"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D205" s="33"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="32"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D206" s="33"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="32"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D207" s="33"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="32"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D208" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="141">
+    <mergeCell ref="A197:A208"/>
+    <mergeCell ref="B197:B208"/>
+    <mergeCell ref="D197:D208"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:B194"/>
+    <mergeCell ref="A183:A194"/>
+    <mergeCell ref="D183:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="D111:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B134:B142"/>
+    <mergeCell ref="A134:A142"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="D118:D123"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="B174:B180"/>
     <mergeCell ref="D174:D180"/>
@@ -3330,113 +3798,8 @@
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="B133:D133"/>
     <mergeCell ref="D134:D142"/>
-    <mergeCell ref="B134:B142"/>
-    <mergeCell ref="A134:A142"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="D126:D131"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="D111:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:B115"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>